--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Mmp12-Plaur.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Mmp12-Plaur.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Mmp12</t>
   </si>
   <si>
     <t>Plaur</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>18.0881659767417</v>
+        <v>0.3075116666666667</v>
       </c>
       <c r="H2">
-        <v>18.0881659767417</v>
+        <v>0.922535</v>
       </c>
       <c r="I2">
-        <v>0.5860862569134035</v>
+        <v>0.007629092790975171</v>
       </c>
       <c r="J2">
-        <v>0.5860862569134035</v>
+        <v>0.007629092790975171</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.8752450299247</v>
+        <v>16.46646866666667</v>
       </c>
       <c r="N2">
-        <v>15.8752450299247</v>
+        <v>49.399406</v>
       </c>
       <c r="O2">
-        <v>0.1414390774030771</v>
+        <v>0.1364853197387753</v>
       </c>
       <c r="P2">
-        <v>0.1414390774030771</v>
+        <v>0.1364853197387752</v>
       </c>
       <c r="Q2">
-        <v>287.1540670227217</v>
+        <v>5.063631223801112</v>
       </c>
       <c r="R2">
-        <v>287.1540670227217</v>
+        <v>45.57268101421</v>
       </c>
       <c r="S2">
-        <v>0.08289549945645459</v>
+        <v>0.001041259168893032</v>
       </c>
       <c r="T2">
-        <v>0.08289549945645459</v>
+        <v>0.001041259168893031</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>18.0881659767417</v>
+        <v>0.3075116666666667</v>
       </c>
       <c r="H3">
-        <v>18.0881659767417</v>
+        <v>0.922535</v>
       </c>
       <c r="I3">
-        <v>0.5860862569134035</v>
+        <v>0.007629092790975171</v>
       </c>
       <c r="J3">
-        <v>0.5860862569134035</v>
+        <v>0.007629092790975171</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.41763666429214</v>
+        <v>6.417914</v>
       </c>
       <c r="N3">
-        <v>6.41763666429214</v>
+        <v>19.253742</v>
       </c>
       <c r="O3">
-        <v>0.05717736055063251</v>
+        <v>0.05319604719615224</v>
       </c>
       <c r="P3">
-        <v>0.05717736055063251</v>
+        <v>0.05319604719615223</v>
       </c>
       <c r="Q3">
-        <v>116.0832771621392</v>
+        <v>1.973583430663333</v>
       </c>
       <c r="R3">
-        <v>116.0832771621392</v>
+        <v>17.76225087597</v>
       </c>
       <c r="S3">
-        <v>0.03351086522530831</v>
+        <v>0.00040583758017254</v>
       </c>
       <c r="T3">
-        <v>0.03351086522530831</v>
+        <v>0.0004058375801725399</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>18.0881659767417</v>
+        <v>0.3075116666666667</v>
       </c>
       <c r="H4">
-        <v>18.0881659767417</v>
+        <v>0.922535</v>
       </c>
       <c r="I4">
-        <v>0.5860862569134035</v>
+        <v>0.007629092790975171</v>
       </c>
       <c r="J4">
-        <v>0.5860862569134035</v>
+        <v>0.007629092790975171</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.0794758824926</v>
+        <v>37.95349166666666</v>
       </c>
       <c r="N4">
-        <v>37.0794758824926</v>
+        <v>113.860475</v>
       </c>
       <c r="O4">
-        <v>0.3303562779360941</v>
+        <v>0.3145844169863869</v>
       </c>
       <c r="P4">
-        <v>0.3303562779360941</v>
+        <v>0.3145844169863869</v>
       </c>
       <c r="Q4">
-        <v>670.6997140931171</v>
+        <v>11.67114147823611</v>
       </c>
       <c r="R4">
-        <v>670.6997140931171</v>
+        <v>105.040273304125</v>
       </c>
       <c r="S4">
-        <v>0.1936172743834094</v>
+        <v>0.002399993707783972</v>
       </c>
       <c r="T4">
-        <v>0.1936172743834094</v>
+        <v>0.002399993707783972</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>18.0881659767417</v>
+        <v>0.3075116666666667</v>
       </c>
       <c r="H5">
-        <v>18.0881659767417</v>
+        <v>0.922535</v>
       </c>
       <c r="I5">
-        <v>0.5860862569134035</v>
+        <v>0.007629092790975171</v>
       </c>
       <c r="J5">
-        <v>0.5860862569134035</v>
+        <v>0.007629092790975171</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>48.2795410448422</v>
+        <v>54.91137833333332</v>
       </c>
       <c r="N5">
-        <v>48.2795410448422</v>
+        <v>164.734135</v>
       </c>
       <c r="O5">
-        <v>0.430142257959143</v>
+        <v>0.4551429441755952</v>
       </c>
       <c r="P5">
-        <v>0.430142257959143</v>
+        <v>0.4551429441755952</v>
       </c>
       <c r="Q5">
-        <v>873.288351700019</v>
+        <v>16.88588947024722</v>
       </c>
       <c r="R5">
-        <v>873.288351700019</v>
+        <v>151.973005232225</v>
       </c>
       <c r="S5">
-        <v>0.2521004659075538</v>
+        <v>0.003472327754273248</v>
       </c>
       <c r="T5">
-        <v>0.2521004659075538</v>
+        <v>0.003472327754273248</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>18.0881659767417</v>
+        <v>0.3075116666666667</v>
       </c>
       <c r="H6">
-        <v>18.0881659767417</v>
+        <v>0.922535</v>
       </c>
       <c r="I6">
-        <v>0.5860862569134035</v>
+        <v>0.007629092790975171</v>
       </c>
       <c r="J6">
-        <v>0.5860862569134035</v>
+        <v>0.007629092790975171</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.588970884992</v>
+        <v>4.897192666666666</v>
       </c>
       <c r="N6">
-        <v>4.588970884992</v>
+        <v>14.691578</v>
       </c>
       <c r="O6">
-        <v>0.04088502615105332</v>
+        <v>0.04059127190309041</v>
       </c>
       <c r="P6">
-        <v>0.04088502615105332</v>
+        <v>0.04059127190309041</v>
       </c>
       <c r="Q6">
-        <v>83.00606703017054</v>
+        <v>1.505943878914444</v>
       </c>
       <c r="R6">
-        <v>83.00606703017054</v>
+        <v>13.55349491023</v>
       </c>
       <c r="S6">
-        <v>0.02396215194067746</v>
+        <v>0.0003096745798523801</v>
       </c>
       <c r="T6">
-        <v>0.02396215194067746</v>
+        <v>0.0003096745798523801</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.7744685985889</v>
+        <v>18.485228</v>
       </c>
       <c r="H7">
-        <v>12.7744685985889</v>
+        <v>55.455684</v>
       </c>
       <c r="I7">
-        <v>0.4139137430865965</v>
+        <v>0.4586021766361137</v>
       </c>
       <c r="J7">
-        <v>0.4139137430865965</v>
+        <v>0.4586021766361137</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.8752450299247</v>
+        <v>16.46646866666667</v>
       </c>
       <c r="N7">
-        <v>15.8752450299247</v>
+        <v>49.399406</v>
       </c>
       <c r="O7">
-        <v>0.1414390774030771</v>
+        <v>0.1364853197387753</v>
       </c>
       <c r="P7">
-        <v>0.1414390774030771</v>
+        <v>0.1364853197387752</v>
       </c>
       <c r="Q7">
-        <v>202.7978191296776</v>
+        <v>304.3864276581893</v>
       </c>
       <c r="R7">
-        <v>202.7978191296776</v>
+        <v>2739.477848923704</v>
       </c>
       <c r="S7">
-        <v>0.05854357794662248</v>
+        <v>0.06259246471107827</v>
       </c>
       <c r="T7">
-        <v>0.05854357794662248</v>
+        <v>0.06259246471107825</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.7744685985889</v>
+        <v>18.485228</v>
       </c>
       <c r="H8">
-        <v>12.7744685985889</v>
+        <v>55.455684</v>
       </c>
       <c r="I8">
-        <v>0.4139137430865965</v>
+        <v>0.4586021766361137</v>
       </c>
       <c r="J8">
-        <v>0.4139137430865965</v>
+        <v>0.4586021766361137</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.41763666429214</v>
+        <v>6.417914</v>
       </c>
       <c r="N8">
-        <v>6.41763666429214</v>
+        <v>19.253742</v>
       </c>
       <c r="O8">
-        <v>0.05717736055063251</v>
+        <v>0.05319604719615224</v>
       </c>
       <c r="P8">
-        <v>0.05717736055063251</v>
+        <v>0.05319604719615223</v>
       </c>
       <c r="Q8">
-        <v>81.98189804515276</v>
+        <v>118.636603574392</v>
       </c>
       <c r="R8">
-        <v>81.98189804515276</v>
+        <v>1067.729432169528</v>
       </c>
       <c r="S8">
-        <v>0.0236664953253242</v>
+        <v>0.02439582303259285</v>
       </c>
       <c r="T8">
-        <v>0.0236664953253242</v>
+        <v>0.02439582303259285</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.7744685985889</v>
+        <v>18.485228</v>
       </c>
       <c r="H9">
-        <v>12.7744685985889</v>
+        <v>55.455684</v>
       </c>
       <c r="I9">
-        <v>0.4139137430865965</v>
+        <v>0.4586021766361137</v>
       </c>
       <c r="J9">
-        <v>0.4139137430865965</v>
+        <v>0.4586021766361137</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>37.0794758824926</v>
+        <v>37.95349166666666</v>
       </c>
       <c r="N9">
-        <v>37.0794758824926</v>
+        <v>113.860475</v>
       </c>
       <c r="O9">
-        <v>0.3303562779360941</v>
+        <v>0.3145844169863869</v>
       </c>
       <c r="P9">
-        <v>0.3303562779360941</v>
+        <v>0.3145844169863869</v>
       </c>
       <c r="Q9">
-        <v>473.6706003130362</v>
+        <v>701.5789468544333</v>
       </c>
       <c r="R9">
-        <v>473.6706003130362</v>
+        <v>6314.210521689899</v>
       </c>
       <c r="S9">
-        <v>0.1367390035526847</v>
+        <v>0.1442690983657599</v>
       </c>
       <c r="T9">
-        <v>0.1367390035526847</v>
+        <v>0.1442690983657599</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.7744685985889</v>
+        <v>18.485228</v>
       </c>
       <c r="H10">
-        <v>12.7744685985889</v>
+        <v>55.455684</v>
       </c>
       <c r="I10">
-        <v>0.4139137430865965</v>
+        <v>0.4586021766361137</v>
       </c>
       <c r="J10">
-        <v>0.4139137430865965</v>
+        <v>0.4586021766361137</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>48.2795410448422</v>
+        <v>54.91137833333332</v>
       </c>
       <c r="N10">
-        <v>48.2795410448422</v>
+        <v>164.734135</v>
       </c>
       <c r="O10">
-        <v>0.430142257959143</v>
+        <v>0.4551429441755952</v>
       </c>
       <c r="P10">
-        <v>0.430142257959143</v>
+        <v>0.4551429441755952</v>
       </c>
       <c r="Q10">
-        <v>616.7454810316206</v>
+        <v>1015.049348285926</v>
       </c>
       <c r="R10">
-        <v>616.7454810316206</v>
+        <v>9135.444134573339</v>
       </c>
       <c r="S10">
-        <v>0.1780417920515892</v>
+        <v>0.2087295448794971</v>
       </c>
       <c r="T10">
-        <v>0.1780417920515892</v>
+        <v>0.2087295448794971</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,681 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>18.485228</v>
+      </c>
+      <c r="H11">
+        <v>55.455684</v>
+      </c>
+      <c r="I11">
+        <v>0.4586021766361137</v>
+      </c>
+      <c r="J11">
+        <v>0.4586021766361137</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4.897192666666666</v>
+      </c>
+      <c r="N11">
+        <v>14.691578</v>
+      </c>
+      <c r="O11">
+        <v>0.04059127190309041</v>
+      </c>
+      <c r="P11">
+        <v>0.04059127190309041</v>
+      </c>
+      <c r="Q11">
+        <v>90.52572300326132</v>
+      </c>
+      <c r="R11">
+        <v>814.731507029352</v>
+      </c>
+      <c r="S11">
+        <v>0.01861524564718559</v>
+      </c>
+      <c r="T11">
+        <v>0.01861524564718559</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>21.48334966666667</v>
+      </c>
+      <c r="H12">
+        <v>64.45004899999999</v>
+      </c>
+      <c r="I12">
+        <v>0.5329829266140542</v>
+      </c>
+      <c r="J12">
+        <v>0.5329829266140542</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>16.46646866666667</v>
+      </c>
+      <c r="N12">
+        <v>49.399406</v>
+      </c>
+      <c r="O12">
+        <v>0.1364853197387753</v>
+      </c>
+      <c r="P12">
+        <v>0.1364853197387752</v>
+      </c>
+      <c r="Q12">
+        <v>353.7549041412104</v>
+      </c>
+      <c r="R12">
+        <v>3183.794137270894</v>
+      </c>
+      <c r="S12">
+        <v>0.07274434515422738</v>
+      </c>
+      <c r="T12">
+        <v>0.07274434515422737</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>21.48334966666667</v>
+      </c>
+      <c r="H13">
+        <v>64.45004899999999</v>
+      </c>
+      <c r="I13">
+        <v>0.5329829266140542</v>
+      </c>
+      <c r="J13">
+        <v>0.5329829266140542</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.417914</v>
+      </c>
+      <c r="N13">
+        <v>19.253742</v>
+      </c>
+      <c r="O13">
+        <v>0.05319604719615224</v>
+      </c>
+      <c r="P13">
+        <v>0.05319604719615223</v>
+      </c>
+      <c r="Q13">
+        <v>137.8782905925953</v>
+      </c>
+      <c r="R13">
+        <v>1240.904615333358</v>
+      </c>
+      <c r="S13">
+        <v>0.02835258491890457</v>
+      </c>
+      <c r="T13">
+        <v>0.02835258491890457</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>21.48334966666667</v>
+      </c>
+      <c r="H14">
+        <v>64.45004899999999</v>
+      </c>
+      <c r="I14">
+        <v>0.5329829266140542</v>
+      </c>
+      <c r="J14">
+        <v>0.5329829266140542</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>37.95349166666666</v>
+      </c>
+      <c r="N14">
+        <v>113.860475</v>
+      </c>
+      <c r="O14">
+        <v>0.3145844169863869</v>
+      </c>
+      <c r="P14">
+        <v>0.3145844169863869</v>
+      </c>
+      <c r="Q14">
+        <v>815.3681325459194</v>
+      </c>
+      <c r="R14">
+        <v>7338.313192913274</v>
+      </c>
+      <c r="S14">
+        <v>0.1676681232325805</v>
+      </c>
+      <c r="T14">
+        <v>0.1676681232325805</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>21.48334966666667</v>
+      </c>
+      <c r="H15">
+        <v>64.45004899999999</v>
+      </c>
+      <c r="I15">
+        <v>0.5329829266140542</v>
+      </c>
+      <c r="J15">
+        <v>0.5329829266140542</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>54.91137833333332</v>
+      </c>
+      <c r="N15">
+        <v>164.734135</v>
+      </c>
+      <c r="O15">
+        <v>0.4551429441755952</v>
+      </c>
+      <c r="P15">
+        <v>0.4551429441755952</v>
+      </c>
+      <c r="Q15">
+        <v>1179.680341413624</v>
+      </c>
+      <c r="R15">
+        <v>10617.12307272261</v>
+      </c>
+      <c r="S15">
+        <v>0.2425834184144458</v>
+      </c>
+      <c r="T15">
+        <v>0.2425834184144458</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>21.48334966666667</v>
+      </c>
+      <c r="H16">
+        <v>64.45004899999999</v>
+      </c>
+      <c r="I16">
+        <v>0.5329829266140542</v>
+      </c>
+      <c r="J16">
+        <v>0.5329829266140542</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.897192666666666</v>
+      </c>
+      <c r="N16">
+        <v>14.691578</v>
+      </c>
+      <c r="O16">
+        <v>0.04059127190309041</v>
+      </c>
+      <c r="P16">
+        <v>0.04059127190309041</v>
+      </c>
+      <c r="Q16">
+        <v>105.2081024430358</v>
+      </c>
+      <c r="R16">
+        <v>946.8729219873219</v>
+      </c>
+      <c r="S16">
+        <v>0.02163445489389596</v>
+      </c>
+      <c r="T16">
+        <v>0.02163445489389596</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.031674</v>
+      </c>
+      <c r="H17">
+        <v>0.095022</v>
+      </c>
+      <c r="I17">
+        <v>0.0007858039588568918</v>
+      </c>
+      <c r="J17">
+        <v>0.0007858039588568918</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>16.46646866666667</v>
+      </c>
+      <c r="N17">
+        <v>49.399406</v>
+      </c>
+      <c r="O17">
+        <v>0.1364853197387753</v>
+      </c>
+      <c r="P17">
+        <v>0.1364853197387752</v>
+      </c>
+      <c r="Q17">
+        <v>0.521558928548</v>
+      </c>
+      <c r="R17">
+        <v>4.694030356932</v>
+      </c>
+      <c r="S17">
+        <v>0.0001072507045765783</v>
+      </c>
+      <c r="T17">
+        <v>0.0001072507045765783</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
         <v>26</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>12.7744685985889</v>
-      </c>
-      <c r="H11">
-        <v>12.7744685985889</v>
-      </c>
-      <c r="I11">
-        <v>0.4139137430865965</v>
-      </c>
-      <c r="J11">
-        <v>0.4139137430865965</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>4.588970884992</v>
-      </c>
-      <c r="N11">
-        <v>4.588970884992</v>
-      </c>
-      <c r="O11">
-        <v>0.04088502615105332</v>
-      </c>
-      <c r="P11">
-        <v>0.04088502615105332</v>
-      </c>
-      <c r="Q11">
-        <v>58.62166447016902</v>
-      </c>
-      <c r="R11">
-        <v>58.62166447016902</v>
-      </c>
-      <c r="S11">
-        <v>0.01692287421037586</v>
-      </c>
-      <c r="T11">
-        <v>0.01692287421037586</v>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.031674</v>
+      </c>
+      <c r="H18">
+        <v>0.095022</v>
+      </c>
+      <c r="I18">
+        <v>0.0007858039588568918</v>
+      </c>
+      <c r="J18">
+        <v>0.0007858039588568918</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>6.417914</v>
+      </c>
+      <c r="N18">
+        <v>19.253742</v>
+      </c>
+      <c r="O18">
+        <v>0.05319604719615224</v>
+      </c>
+      <c r="P18">
+        <v>0.05319604719615223</v>
+      </c>
+      <c r="Q18">
+        <v>0.203281008036</v>
+      </c>
+      <c r="R18">
+        <v>1.829529072324</v>
+      </c>
+      <c r="S18">
+        <v>4.180166448227449E-05</v>
+      </c>
+      <c r="T18">
+        <v>4.180166448227448E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.031674</v>
+      </c>
+      <c r="H19">
+        <v>0.095022</v>
+      </c>
+      <c r="I19">
+        <v>0.0007858039588568918</v>
+      </c>
+      <c r="J19">
+        <v>0.0007858039588568918</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>37.95349166666666</v>
+      </c>
+      <c r="N19">
+        <v>113.860475</v>
+      </c>
+      <c r="O19">
+        <v>0.3145844169863869</v>
+      </c>
+      <c r="P19">
+        <v>0.3145844169863869</v>
+      </c>
+      <c r="Q19">
+        <v>1.20213889505</v>
+      </c>
+      <c r="R19">
+        <v>10.81925005545</v>
+      </c>
+      <c r="S19">
+        <v>0.0002472016802625901</v>
+      </c>
+      <c r="T19">
+        <v>0.0002472016802625901</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.031674</v>
+      </c>
+      <c r="H20">
+        <v>0.095022</v>
+      </c>
+      <c r="I20">
+        <v>0.0007858039588568918</v>
+      </c>
+      <c r="J20">
+        <v>0.0007858039588568918</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>54.91137833333332</v>
+      </c>
+      <c r="N20">
+        <v>164.734135</v>
+      </c>
+      <c r="O20">
+        <v>0.4551429441755952</v>
+      </c>
+      <c r="P20">
+        <v>0.4551429441755952</v>
+      </c>
+      <c r="Q20">
+        <v>1.73926299733</v>
+      </c>
+      <c r="R20">
+        <v>15.65336697597</v>
+      </c>
+      <c r="S20">
+        <v>0.000357653127378964</v>
+      </c>
+      <c r="T20">
+        <v>0.000357653127378964</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.031674</v>
+      </c>
+      <c r="H21">
+        <v>0.095022</v>
+      </c>
+      <c r="I21">
+        <v>0.0007858039588568918</v>
+      </c>
+      <c r="J21">
+        <v>0.0007858039588568918</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.897192666666666</v>
+      </c>
+      <c r="N21">
+        <v>14.691578</v>
+      </c>
+      <c r="O21">
+        <v>0.04059127190309041</v>
+      </c>
+      <c r="P21">
+        <v>0.04059127190309041</v>
+      </c>
+      <c r="Q21">
+        <v>0.155113680524</v>
+      </c>
+      <c r="R21">
+        <v>1.396023124716</v>
+      </c>
+      <c r="S21">
+        <v>3.189678215648497E-05</v>
+      </c>
+      <c r="T21">
+        <v>3.189678215648497E-05</v>
       </c>
     </row>
   </sheetData>
